--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1615624.729300358</v>
+        <v>-1618521.793965839</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10077562.50365403</v>
+        <v>10077562.50365404</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>284.563910173362</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>143.7811982615459</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>140.4079961371341</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>90.05347083351255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>364.2663622060804</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>74.03158105159699</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>128.7835007017901</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>44.60563665982767</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,25 +1181,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>132.0147515468148</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>188.2594555911369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>234.5419316221696</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>282.026047627202</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>347.7039243400708</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1543,10 +1543,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>127.6429814757075</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>27.34976602775327</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>20.43112068613203</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856548</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>180.3302385618299</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>158.4589496224476</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>199.9646153110764</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>13.03790159951684</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.026033500079</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>46.35517081455633</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3673,7 +3673,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>995.9506728057374</v>
+        <v>940.9277686105527</v>
       </c>
       <c r="C2" t="n">
-        <v>995.9506728057374</v>
+        <v>940.9277686105527</v>
       </c>
       <c r="D2" t="n">
-        <v>995.9506728057374</v>
+        <v>940.9277686105527</v>
       </c>
       <c r="E2" t="n">
-        <v>610.1624202074931</v>
+        <v>940.9277686105527</v>
       </c>
       <c r="F2" t="n">
-        <v>199.1765154178856</v>
+        <v>940.9277686105527</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>522.9639605087395</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>195.7692405447424</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.090004781549</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y2" t="n">
-        <v>995.9506728057374</v>
+        <v>1228.366061714959</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y4" t="n">
-        <v>382.4813941485145</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1309.206655608311</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1695.806495672433</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.0273259635867</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="C7" t="n">
-        <v>184.0273259635867</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="D7" t="n">
-        <v>184.0273259635867</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="E7" t="n">
-        <v>184.0273259635867</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="F7" t="n">
-        <v>184.0273259635867</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>302.4040774669905</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>144.6557048995207</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635867</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X7" t="n">
-        <v>184.0273259635867</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.0273259635867</v>
+        <v>471.4038777286581</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1317.778685247039</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,7 +4802,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2508.772167663044</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2508.772167663044</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2508.772167663044</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2177.709280319473</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>2177.709280319473</v>
       </c>
       <c r="X8" t="n">
-        <v>1894.539591564834</v>
+        <v>2177.709280319473</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.378525311161</v>
+        <v>2177.709280319473</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4902,22 +4902,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>247.5125998356232</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W10" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X10" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y10" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.229508727735</v>
       </c>
       <c r="C11" t="n">
-        <v>1947.7144217092</v>
+        <v>1949.266991787324</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.44872310245</v>
+        <v>1591.001293180573</v>
       </c>
       <c r="E11" t="n">
-        <v>1203.660470504205</v>
+        <v>1205.213040582329</v>
       </c>
       <c r="F11" t="n">
-        <v>792.6745657145977</v>
+        <v>794.2271357927214</v>
       </c>
       <c r="G11" t="n">
-        <v>378.6914586310042</v>
+        <v>380.2440287091278</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5045,13 +5045,13 @@
         <v>842.9429223347665</v>
       </c>
       <c r="L11" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.462702840541</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.467264779579</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.752242696685</v>
       </c>
       <c r="O11" t="n">
         <v>3652.861230428501</v>
@@ -5078,13 +5078,13 @@
         <v>3819.650524220739</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.434439028749</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.416110689545</v>
+        <v>3094.968680767669</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.829348791857</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>1356.759402180614</v>
+        <v>1654.724074459055</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.759402180614</v>
+        <v>1903.635877180809</v>
       </c>
       <c r="O12" t="n">
         <v>1903.635877180809</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8867212939391</v>
+        <v>1099.390323855922</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9505383660322</v>
+        <v>930.454140928015</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8338989536965</v>
+        <v>780.3375015156793</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9208053713033</v>
+        <v>632.4244079332861</v>
       </c>
       <c r="F13" t="n">
-        <v>261.030857873393</v>
+        <v>485.5344604353758</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>318.3202656099546</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>176.447548648385</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2361.52146919056</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.35127892949</v>
+        <v>2361.52146919056</v>
       </c>
       <c r="T13" t="n">
-        <v>2178.35127892949</v>
+        <v>2141.842686904942</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.418974408574</v>
+        <v>1852.766473219669</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.734486202687</v>
+        <v>1598.081985013782</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.317316165726</v>
+        <v>1308.664814976821</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.327765267709</v>
+        <v>1281.038788686162</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.535186124179</v>
+        <v>1281.038788686162</v>
       </c>
     </row>
     <row r="14">
@@ -5267,37 +5267,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192612</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075818</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756268</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468478</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636216</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517213</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2319.799627685892</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277359</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277359</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000582</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038347</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603204</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2227.361618603204</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1972.677130397317</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1683.259960360356</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5604,10 +5604,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>642.8692823226941</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>473.9330993947872</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>323.8164599824514</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1817.401535437329</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1562.717047231442</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1273.299877194481</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1045.310326296464</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y22" t="n">
-        <v>824.5177471529338</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,52 +5984,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>189.0729639753278</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000582</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,13 +6312,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,19 +6643,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7023,16 +7023,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380725</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,16 +7260,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7363,13 +7363,13 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.33868158239</v>
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7500,16 +7500,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7734,16 +7734,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>49.74439522492685</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-2.982144605728407e-12</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>98.16993149011859</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,19 +22553,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>169.2254019260779</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.53704437734234</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.537044377342227</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>158.5424700727129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.3598893612839</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>124.9899273367992</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012159</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>45.37941682720725</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>25.74504007796074</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>152.486236692752</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891651</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>179.3544845744808</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1295459.552598366</v>
+        <v>1295459.552598367</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1295704.167259096</v>
+        <v>1295704.167259097</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99554.90470603394</v>
+        <v>99554.90470603389</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="E2" t="n">
         <v>120984.0942579184</v>
@@ -26338,10 +26338,10 @@
         <v>121071.9899535009</v>
       </c>
       <c r="K2" t="n">
+        <v>123156.2654796424</v>
+      </c>
+      <c r="L2" t="n">
         <v>123156.2654796425</v>
-      </c>
-      <c r="L2" t="n">
-        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>936391.4095185974</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.637614951069</v>
+        <v>7852.637614951788</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363179</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718171</v>
+        <v>5759.938886718172</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.59260167043</v>
+        <v>5067.592601670371</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670451</v>
+        <v>5067.592601670414</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670438</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.59260167045</v>
+        <v>5067.592601670417</v>
       </c>
       <c r="K4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="L4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="M4" t="n">
         <v>13058.45186476391</v>
       </c>
       <c r="N4" t="n">
+        <v>13058.4518647639</v>
+      </c>
+      <c r="O4" t="n">
         <v>13058.45186476392</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
         <v>13058.45186476391</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-684530.6940451037</v>
+        <v>-684924.0500579973</v>
       </c>
       <c r="C6" t="n">
         <v>-160767.3185114985</v>
       </c>
       <c r="D6" t="n">
-        <v>-160767.3185114985</v>
+        <v>-160767.3185114986</v>
       </c>
       <c r="E6" t="n">
-        <v>-922073.212925873</v>
+        <v>-922109.4157795684</v>
       </c>
       <c r="F6" t="n">
-        <v>7029.229912972252</v>
+        <v>6994.491987535934</v>
       </c>
       <c r="G6" t="n">
-        <v>14881.86752792336</v>
+        <v>14847.12960248836</v>
       </c>
       <c r="H6" t="n">
-        <v>14881.86752792336</v>
+        <v>14847.12960248771</v>
       </c>
       <c r="I6" t="n">
-        <v>14881.86752792337</v>
+        <v>14847.12960248768</v>
       </c>
       <c r="J6" t="n">
-        <v>-161541.3516646696</v>
+        <v>-161576.0895901053</v>
       </c>
       <c r="K6" t="n">
-        <v>-12494.02023266864</v>
+        <v>-12494.02023266867</v>
       </c>
       <c r="L6" t="n">
-        <v>6933.697760963129</v>
+        <v>6933.697760963158</v>
       </c>
       <c r="M6" t="n">
         <v>-117274.8129470953</v>
       </c>
       <c r="N6" t="n">
-        <v>6933.697760963187</v>
+        <v>6933.697760963201</v>
       </c>
       <c r="O6" t="n">
-        <v>6933.697760963158</v>
+        <v>6933.697760963172</v>
       </c>
       <c r="P6" t="n">
-        <v>-12494.02023266867</v>
+        <v>-12494.0202326686</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203969</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625289284</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100.7775698331712</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>11.5233201077271</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538051777</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>128.5311825185822</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1.006529564927121</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>295.6995196268721</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>38.52630155726084</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>90.35998513251056</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>42.4009612621567</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>197.9784830649167</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>17.59571170165836</v>
+        <v>163.0715099677104</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31847,13 +31847,13 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>439.1579551075604</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>382.7677754386397</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982453</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348438</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135345</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663287</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162568</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175683</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159433</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460035</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236514</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669227</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078749</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659452</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521103</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473078</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286944</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071791</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511227</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214702</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485293</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742443</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869281</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106792</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417317</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.9903120353277</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>556.7959610899857</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O30" t="n">
-        <v>491.597732526532</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,7 +33509,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>510.8679233250724</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>575.5951359912046</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33980,10 +33980,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N39" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34220,10 +34220,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O42" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34454,10 +34454,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N45" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>675.5219512913658</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
         <v>728.287436302058</v>
@@ -35422,7 +35422,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>739.5040280119352</v>
       </c>
       <c r="P11" t="n">
         <v>553.8443926134828</v>
@@ -35495,13 +35495,13 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>297.0239211855421</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839151</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317426</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396424</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462697</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902955</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193525</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224312</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924732</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902407</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674336</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>197.8432633066761</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238458</v>
       </c>
       <c r="O15" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.90217120714</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625078</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295353</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010454</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899078</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066252</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>425.4542490066523</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O30" t="n">
-        <v>349.0014880820875</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,7 +37157,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>379.5262112417391</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>433.4611020691863</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37868,10 +37868,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O42" t="n">
-        <v>160.8335108287869</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
